--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H2">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I2">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J2">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>217.4961492006547</v>
+        <v>268.1753454906257</v>
       </c>
       <c r="R2">
-        <v>1957.465342805892</v>
+        <v>2413.578109415631</v>
       </c>
       <c r="S2">
-        <v>0.005242195746185774</v>
+        <v>0.008541210353233426</v>
       </c>
       <c r="T2">
-        <v>0.005242195746185775</v>
+        <v>0.008541210353233424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H3">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I3">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J3">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>977.8120676874422</v>
+        <v>985.218976885567</v>
       </c>
       <c r="R3">
-        <v>8800.308609186979</v>
+        <v>8866.970791970103</v>
       </c>
       <c r="S3">
-        <v>0.02356769202875062</v>
+        <v>0.03137858370306901</v>
       </c>
       <c r="T3">
-        <v>0.02356769202875063</v>
+        <v>0.03137858370306901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H4">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I4">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J4">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>1079.655390604964</v>
+        <v>945.6726479808181</v>
       </c>
       <c r="R4">
-        <v>9716.89851544468</v>
+        <v>8511.053831827363</v>
       </c>
       <c r="S4">
-        <v>0.02602236828917083</v>
+        <v>0.03011905884534706</v>
       </c>
       <c r="T4">
-        <v>0.02602236828917084</v>
+        <v>0.03011905884534706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H5">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I5">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J5">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>172.2007244895764</v>
+        <v>172.467918188716</v>
       </c>
       <c r="R5">
-        <v>1549.806520406188</v>
+        <v>1552.211263698444</v>
       </c>
       <c r="S5">
-        <v>0.00415046385293266</v>
+        <v>0.005492991034425905</v>
       </c>
       <c r="T5">
-        <v>0.004150463852932661</v>
+        <v>0.005492991034425904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H6">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I6">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J6">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>961.7814879881604</v>
+        <v>862.475931285821</v>
       </c>
       <c r="R6">
-        <v>8656.033391893443</v>
+        <v>7762.283381572391</v>
       </c>
       <c r="S6">
-        <v>0.02318131536407258</v>
+        <v>0.02746929752336462</v>
       </c>
       <c r="T6">
-        <v>0.02318131536407259</v>
+        <v>0.02746929752336462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
         <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>788.0323219131132</v>
+        <v>964.3483281779588</v>
       </c>
       <c r="R7">
-        <v>7092.290897218018</v>
+        <v>8679.13495360163</v>
       </c>
       <c r="S7">
-        <v>0.01899353023477524</v>
+        <v>0.03071386711439829</v>
       </c>
       <c r="T7">
-        <v>0.01899353023477524</v>
+        <v>0.03071386711439828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
         <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>3542.809916066679</v>
+        <v>3542.809916066677</v>
       </c>
       <c r="R8">
-        <v>31885.28924460011</v>
+        <v>31885.2892446001</v>
       </c>
       <c r="S8">
-        <v>0.08539049146297999</v>
+        <v>0.1128361918553192</v>
       </c>
       <c r="T8">
-        <v>0.08539049146297999</v>
+        <v>0.1128361918553192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
         <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>3911.808772023437</v>
+        <v>3400.602823557484</v>
       </c>
       <c r="R9">
-        <v>35206.27894821094</v>
+        <v>30605.42541201736</v>
       </c>
       <c r="S9">
-        <v>0.09428427758357634</v>
+        <v>0.1083069884394698</v>
       </c>
       <c r="T9">
-        <v>0.09428427758357635</v>
+        <v>0.1083069884394697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
         <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>623.9178820101737</v>
+        <v>620.1880648847158</v>
       </c>
       <c r="R10">
-        <v>5615.260938091562</v>
+        <v>5581.692583962443</v>
       </c>
       <c r="S10">
-        <v>0.01503796586313596</v>
+        <v>0.01975258654390474</v>
       </c>
       <c r="T10">
-        <v>0.01503796586313596</v>
+        <v>0.01975258654390474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
         <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>3484.727899495508</v>
+        <v>3101.430599101376</v>
       </c>
       <c r="R11">
-        <v>31362.55109545957</v>
+        <v>27912.87539191239</v>
       </c>
       <c r="S11">
-        <v>0.0839905710445344</v>
+        <v>0.09877854764917457</v>
       </c>
       <c r="T11">
-        <v>0.08399057104453442</v>
+        <v>0.09877854764917457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H12">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>774.2048143789738</v>
+        <v>621.7320309302216</v>
       </c>
       <c r="R12">
-        <v>6967.843329410764</v>
+        <v>5595.588278371994</v>
       </c>
       <c r="S12">
-        <v>0.01866025306438753</v>
+        <v>0.0198017608583772</v>
       </c>
       <c r="T12">
-        <v>0.01866025306438753</v>
+        <v>0.01980176085837719</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H13">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>3480.644660347844</v>
+        <v>2284.11077196308</v>
       </c>
       <c r="R13">
-        <v>31325.8019431306</v>
+        <v>20556.99694766772</v>
       </c>
       <c r="S13">
-        <v>0.08389215487041266</v>
+        <v>0.07274744267684745</v>
       </c>
       <c r="T13">
-        <v>0.08389215487041266</v>
+        <v>0.07274744267684743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H14">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>3843.168738152808</v>
+        <v>2192.427402111158</v>
       </c>
       <c r="R14">
-        <v>34588.51864337528</v>
+        <v>19731.84661900042</v>
       </c>
       <c r="S14">
-        <v>0.09262988280510742</v>
+        <v>0.06982738697088421</v>
       </c>
       <c r="T14">
-        <v>0.09262988280510745</v>
+        <v>0.0698273869708842</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H15">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>612.9700706396508</v>
+        <v>399.84596216182</v>
       </c>
       <c r="R15">
-        <v>5516.730635756857</v>
+        <v>3598.61365945638</v>
       </c>
       <c r="S15">
-        <v>0.01477409650081611</v>
+        <v>0.01273483386575705</v>
       </c>
       <c r="T15">
-        <v>0.01477409650081611</v>
+        <v>0.01273483386575705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H16">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>3423.581801873877</v>
+        <v>1999.545899365728</v>
       </c>
       <c r="R16">
-        <v>30812.23621686489</v>
+        <v>17995.91309429155</v>
       </c>
       <c r="S16">
-        <v>0.08251679868568562</v>
+        <v>0.06368423654375413</v>
       </c>
       <c r="T16">
-        <v>0.08251679868568564</v>
+        <v>0.06368423654375413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H17">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I17">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J17">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>128.7166652457953</v>
+        <v>137.074482194662</v>
       </c>
       <c r="R17">
-        <v>1158.449987212158</v>
+        <v>1233.670339751958</v>
       </c>
       <c r="S17">
-        <v>0.003102390352632026</v>
+        <v>0.00436573311518707</v>
       </c>
       <c r="T17">
-        <v>0.003102390352632026</v>
+        <v>0.004365733115187068</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H18">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I18">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J18">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>578.6801699818077</v>
+        <v>503.5823888205432</v>
       </c>
       <c r="R18">
-        <v>5208.12152983627</v>
+        <v>4532.241499384889</v>
       </c>
       <c r="S18">
-        <v>0.01394762498844077</v>
+        <v>0.01603877159263471</v>
       </c>
       <c r="T18">
-        <v>0.01394762498844077</v>
+        <v>0.0160387715926347</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H19">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I19">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J19">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>638.9521929655356</v>
+        <v>483.3687761657299</v>
       </c>
       <c r="R19">
-        <v>5750.56973668982</v>
+        <v>4350.318985491569</v>
       </c>
       <c r="S19">
-        <v>0.01540032998418677</v>
+        <v>0.01539498117495973</v>
       </c>
       <c r="T19">
-        <v>0.01540032998418678</v>
+        <v>0.01539498117495972</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H20">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I20">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J20">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>101.9103238869735</v>
+        <v>88.15482473848799</v>
       </c>
       <c r="R20">
-        <v>917.1929149827619</v>
+        <v>793.3934226463919</v>
       </c>
       <c r="S20">
-        <v>0.002456291149687625</v>
+        <v>0.002807673838795043</v>
       </c>
       <c r="T20">
-        <v>0.002456291149687625</v>
+        <v>0.002807673838795042</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H21">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I21">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J21">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>569.1930927694896</v>
+        <v>440.8438123574466</v>
       </c>
       <c r="R21">
-        <v>5122.737834925406</v>
+        <v>3967.59431121702</v>
       </c>
       <c r="S21">
-        <v>0.01371896293631281</v>
+        <v>0.01404058873263552</v>
       </c>
       <c r="T21">
-        <v>0.01371896293631282</v>
+        <v>0.01404058873263552</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H22">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I22">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J22">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>738.6467802888857</v>
+        <v>612.2850905792419</v>
       </c>
       <c r="R22">
-        <v>6647.821022599971</v>
+        <v>5510.565815213177</v>
       </c>
       <c r="S22">
-        <v>0.01780321639622188</v>
+        <v>0.01950088195176277</v>
       </c>
       <c r="T22">
-        <v>0.01780321639622188</v>
+        <v>0.01950088195176276</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H23">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I23">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J23">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>3320.784014702791</v>
+        <v>2249.404729577776</v>
       </c>
       <c r="R23">
-        <v>29887.05613232511</v>
+        <v>20244.64256619999</v>
       </c>
       <c r="S23">
-        <v>0.08003911747336943</v>
+        <v>0.07164207779701931</v>
       </c>
       <c r="T23">
-        <v>0.08003911747336946</v>
+        <v>0.0716420777970193</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H24">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I24">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J24">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>3666.657920256621</v>
+        <v>2159.114447556429</v>
       </c>
       <c r="R24">
-        <v>32999.92128230959</v>
+        <v>19432.03002800787</v>
       </c>
       <c r="S24">
-        <v>0.08837553502868997</v>
+        <v>0.06876639103250259</v>
       </c>
       <c r="T24">
-        <v>0.08837553502869</v>
+        <v>0.06876639103250258</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H25">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I25">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J25">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>584.8172998699521</v>
+        <v>393.7704814624079</v>
       </c>
       <c r="R25">
-        <v>5263.355698829568</v>
+        <v>3543.934333161671</v>
       </c>
       <c r="S25">
-        <v>0.01409554501512473</v>
+        <v>0.0125413337565067</v>
       </c>
       <c r="T25">
-        <v>0.01409554501512474</v>
+        <v>0.01254133375650669</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H26">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I26">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J26">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>3266.341965385794</v>
+        <v>1969.163693044313</v>
       </c>
       <c r="R26">
-        <v>29397.07768847215</v>
+        <v>17722.47323739882</v>
       </c>
       <c r="S26">
-        <v>0.07872692927881018</v>
+        <v>0.06271658303067006</v>
       </c>
       <c r="T26">
-        <v>0.07872692927881021</v>
+        <v>0.06271658303067006</v>
       </c>
     </row>
   </sheetData>
